--- a/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
+++ b/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuxbear/dev/src/sporenstreks/src/main/resources/bulk-upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuxbear/dev/src/sporenstreks/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E37F7D-A87B-6B44-ADF5-7B64A3A732D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58E15C-74C2-CA41-BFB4-9CB146536083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
+    <workbookView xWindow="7920" yWindow="7540" windowWidth="33600" windowHeight="20540" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3310F717-4C48-AB4E-8AB9-49D048916BC7}">
   <dimension ref="A1:H2875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F2875"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
+++ b/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuxbear/dev/src/sporenstreks/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98345F6-A57F-0C45-81FF-33707FDC9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154BE75-F127-594F-87E3-E99F9C07821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="4860" windowWidth="33600" windowHeight="20540" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
+    <workbookView xWindow="27300" yWindow="1500" windowWidth="33600" windowHeight="20540" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:Q2874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
+++ b/src/test/resources/koronasykepengerefusjon_nav_TESTFILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuxbear/dev/src/sporenstreks/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154BE75-F127-594F-87E3-E99F9C07821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488DBA95-2BCD-6C45-ABC0-615ECC86B673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27300" yWindow="1500" windowWidth="33600" windowHeight="20540" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
+    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{D6DC71BC-B5E6-104F-ACAE-6ED12C21E25B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>3514</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -94,46 +91,19 @@
     </r>
   </si>
   <si>
-    <t>15.03.2020</t>
-  </si>
-  <si>
     <t>Fraværsperiode (DD.MM.ÅÅÅÅ)</t>
   </si>
   <si>
     <t>Slik fylles tallene inn:</t>
   </si>
   <si>
-    <t>20015001543</t>
-  </si>
-  <si>
     <t>20.03.2020</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Antall arbeidsdager som kreves refundert</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -574,7 +544,7 @@
   <dimension ref="A1:Q2874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -583,12 +553,13 @@
     <col min="2" max="2" width="28.1640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="37">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -612,7 +583,7 @@
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
@@ -633,7 +604,7 @@
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
@@ -654,21 +625,23 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11">
         <v>123456785</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -709,244 +682,286 @@
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>20015001543</v>
+      </c>
+      <c r="B11">
+        <v>910098896</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+      <c r="E11" t="s">
+        <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13">
-        <v>123456785</v>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>20015001543</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
+      <c r="B12">
+        <v>910098896</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13">
-        <v>123456785</v>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>20015001543</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
+      <c r="B13">
+        <v>910098896</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13">
-        <v>123456785</v>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>20015001543</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
+      <c r="B14">
+        <v>910098896</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
-        <v>123456785</v>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>20015001543</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
+      <c r="B15">
+        <v>910098896</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13">
-        <v>123456785</v>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>20015001543</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
+      <c r="B16">
+        <v>910098896</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
+      <c r="D16" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
-        <v>123456785</v>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20015001543</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
+      <c r="B17">
+        <v>910098896</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
+      <c r="D17" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
-        <v>123456785</v>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20015001543</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>910098896</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
+      <c r="C18" t="s">
+        <v>8</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="13">
-        <v>123456785</v>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20015001543</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>910098896</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="13">
-        <v>123456785</v>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20015001543</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>910098896</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
+      <c r="D20" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
-        <v>123456785</v>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20015001543</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>910098896</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
+      <c r="C21" t="s">
+        <v>8</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>24</v>
+      <c r="D21" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="13">
-        <v>123456785</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:2">
